--- a/templates/export/stops.xlsx
+++ b/templates/export/stops.xlsx
@@ -65,18 +65,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Report type:</t>
   </si>
   <si>
     <t>Stops</t>
-  </si>
-  <si>
-    <t>Device:</t>
-  </si>
-  <si>
-    <t>${device.deviceName}</t>
   </si>
   <si>
     <t>Group:</t>
@@ -843,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,7 +848,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -901,12 +895,8 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -915,10 +905,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -928,10 +918,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="4"/>
@@ -950,54 +940,54 @@
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="29.25" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="20" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="H9" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
